--- a/document/面向对象找对象/小程序信息录入项.xlsx
+++ b/document/面向对象找对象/小程序信息录入项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>信息录入</t>
   </si>
@@ -27,6 +27,9 @@
     <t>核实要求：</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>真实姓名</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t>身份证号</t>
   </si>
   <si>
+    <t>身份证正反面</t>
+  </si>
+  <si>
     <t>小程序自动获取微信号</t>
   </si>
   <si>
@@ -48,9 +54,24 @@
     <t>对外公开信息</t>
   </si>
   <si>
+    <t>意向</t>
+  </si>
+  <si>
+    <t>男/女</t>
+  </si>
+  <si>
     <t>出生年月</t>
   </si>
   <si>
+    <t>生肖</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
     <t>身高：cm</t>
   </si>
   <si>
@@ -60,10 +81,16 @@
     <t xml:space="preserve">婚姻状况： </t>
   </si>
   <si>
+    <t>未婚/离异/丧偶</t>
+  </si>
+  <si>
     <t xml:space="preserve">学历： </t>
   </si>
   <si>
-    <t xml:space="preserve">所在城市： </t>
+    <t xml:space="preserve">居住地： </t>
+  </si>
+  <si>
+    <t>省/市</t>
   </si>
   <si>
     <t xml:space="preserve">籍贯： </t>
@@ -72,7 +99,7 @@
     <t xml:space="preserve">职业： </t>
   </si>
   <si>
-    <t xml:space="preserve">是否是独生子女： </t>
+    <t xml:space="preserve">家庭情况： </t>
   </si>
   <si>
     <t xml:space="preserve">收入描述： </t>
@@ -84,13 +111,34 @@
     <t xml:space="preserve">是否接受异地恋： </t>
   </si>
   <si>
+    <t>打算几年内结婚</t>
+  </si>
+  <si>
+    <t>会要几个小孩</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
     <t>对于另一半的小要求</t>
   </si>
   <si>
+    <t>对于另一半的特殊要求</t>
+  </si>
+  <si>
     <t>关于自己</t>
   </si>
   <si>
     <t>2-4张生活照</t>
+  </si>
+  <si>
+    <t>联系信息</t>
+  </si>
+  <si>
+    <t>微信号</t>
+  </si>
+  <si>
+    <t>qq号</t>
   </si>
 </sst>
 </file>
@@ -98,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -120,12 +168,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,16 +266,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,93 +297,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,13 +320,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,169 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,31 +514,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +559,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,21 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,13 +1116,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="42.5" customWidth="1"/>
   </cols>
@@ -1124,28 +1172,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1179,29 +1225,108 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/document/面向对象找对象/小程序信息录入项.xlsx
+++ b/document/面向对象找对象/小程序信息录入项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21255" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>信息录入</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>qq号</t>
+  </si>
+  <si>
+    <t>微博号</t>
   </si>
 </sst>
 </file>
@@ -147,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -174,28 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -205,6 +186,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -234,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -241,27 +245,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +297,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,13 +323,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,169 +467,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,21 +514,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,17 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +599,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,145 +622,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1327,6 +1330,11 @@
     <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
